--- a/workbooks/SensorDatabase.xlsx
+++ b/workbooks/SensorDatabase.xlsx
@@ -2,20 +2,114 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peter\Documents\NetBeansProjects\DisasterResponseTradeStudy\workbooks\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18750" windowHeight="12690"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sensor" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171026"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Category Name</t>
+  </si>
+  <si>
+    <t>Cost Ranking</t>
+  </si>
+  <si>
+    <t>Terrain 1</t>
+  </si>
+  <si>
+    <t>Terrain 2</t>
+  </si>
+  <si>
+    <t>Terrain 3</t>
+  </si>
+  <si>
+    <t>Terrain 4</t>
+  </si>
+  <si>
+    <t>Disaster Effect</t>
+  </si>
+  <si>
+    <t>Weight (kg)</t>
+  </si>
+  <si>
+    <t>Platform Restrictions</t>
+  </si>
+  <si>
+    <t>10,11,12,13,14,15</t>
+  </si>
+  <si>
+    <t>Swath Size (km)</t>
+  </si>
+  <si>
+    <t>Ground Sample Distance (m)</t>
+  </si>
+  <si>
+    <t>X-Band SAR</t>
+  </si>
+  <si>
+    <t>2,5,6,10,11,12,13,14,15</t>
+  </si>
+  <si>
+    <t>L-Band SAR</t>
+  </si>
+  <si>
+    <t>2,5,6,10,11,12,13,14,16</t>
+  </si>
+  <si>
+    <t>4K Video</t>
+  </si>
+  <si>
+    <t>2, 6, 13, 14</t>
+  </si>
+  <si>
+    <t>3, 4, 13</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>2, 6, 13</t>
+  </si>
+  <si>
+    <t>LWIR</t>
+  </si>
+  <si>
+    <t>MWIR</t>
+  </si>
+  <si>
+    <t>SWIR</t>
+  </si>
+  <si>
+    <t>LIDAR</t>
+  </si>
+  <si>
+    <t>6, 14</t>
+  </si>
+  <si>
+    <t>3, 4</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29,12 +123,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,8 +149,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -144,6 +257,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -179,6 +309,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -331,12 +478,318 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" style="3" customWidth="1"/>
+    <col min="8" max="14" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>90</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4">
+        <v>14</v>
+      </c>
+      <c r="M2" s="4"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>90</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4">
+        <v>14</v>
+      </c>
+      <c r="M3" s="4"/>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5</v>
+      </c>
+      <c r="K4" s="4">
+        <v>6</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="4">
+        <v>6</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5</v>
+      </c>
+      <c r="K5" s="4">
+        <v>6</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="4">
+        <v>6</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>40</v>
+      </c>
+      <c r="K6" s="4">
+        <v>6</v>
+      </c>
+      <c r="L6" s="4">
+        <v>6</v>
+      </c>
+      <c r="M6" s="4">
+        <v>6</v>
+      </c>
+      <c r="N6" s="5"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>40</v>
+      </c>
+      <c r="K7" s="4">
+        <v>6</v>
+      </c>
+      <c r="L7" s="4">
+        <v>6</v>
+      </c>
+      <c r="M7" s="4">
+        <v>6</v>
+      </c>
+      <c r="N7" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>40</v>
+      </c>
+      <c r="K8" s="4">
+        <v>6</v>
+      </c>
+      <c r="L8" s="4">
+        <v>6</v>
+      </c>
+      <c r="M8" s="4">
+        <v>6</v>
+      </c>
+      <c r="N8" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1">
+        <v>35</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="4">
+        <v>6</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>